--- a/青马易战_9.xlsx
+++ b/青马易战_9.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,13 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1036"/>
+  <dimension ref="A1:D1049"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="60" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
@@ -23231,6 +23231,293 @@
         </is>
       </c>
     </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>世界银行是（）</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 各国民间的国际金融组织  B. 政府间的国际金融组织  C. 欧洲的国际资本市场  D. 联合国的专门机构之一 </t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>D.联合国的专门机构之一</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>从物到感觉和思想与从思想和感觉到物，这是（）</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 辩证唯物论与旧唯物论两条认识路线的对立  B. 辩证法和形而上学的对立  C. 唯物论与唯心论两条认识路线的对立  D. 可知论与不可知论的对立 </t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>马克思恩格斯把科学社会主义理论与工人运动相结合，建立的第一个国际性的无产阶级政党组织是（）</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 俄国社会民主工党  B. 共产主义者同盟  C. 中国共产党  D. 德国社会民主工党 </t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>各垄断资本主义国家和各国垄断组织在经济上瓜分世界是以（）</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 政治力量为后盾和基础  B. 帮助落后国家为目标  C. 人道主义救援为原则  D. 经济实力为后盾和基础 </t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>实践的主体是（）</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 绝对精神  B. 具有思维能力从事社会实践和认识活动的人  C. 人  D. 人的意识 </t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>B.具有思维能力从事社会实践和认识活动的人</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>沉舟侧畔千帆过，病树前头万木春。…‘芳林新叶催陈叶，流水前波让后波。这两句诗包含的哲学道理是()</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 矛盾是事物发展的动力  B. 事物是本质和现象的统一  C. 事物的发展是量变和质变的统一  D. 新事物代替旧事物是事物发展的总趋势 </t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>狼孩没有意识，这一事实说明（）</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 意识是生物界长期发展的产物  B. 意识是社会的产物  C. 意识是人脑发展的产物  D. 意识是对客观世界的反映 </t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>江泽民说：忘记远大理想而只顾眼前，就会失去前进方向，离开现实工作而空谈远大理想，就会脱离实际。江泽民所说的远大理想是指()</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 共产主义远大理想  B. 建设中国特色社会主义共同理想  C. 个人对美好生活的向往与追求  D. 个人对将来职业的向往与追求 </t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>资本主义改良措施的实施，在一定程度上对资本主义生产关系进行了调整，使资本主义进入到新的发展阶段。</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>心情愉快，则感到光阴似箭；心情抑郁，则感到度日如年。则表明
+()</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 时间是人的主观感觉  B. 时间随着人的感觉的变化而変化  C. 时间的具体特性是可变的  D. 人的时间观念具有相对性 </t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>所谓三权分立的三权指（）</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 立法权、行政权和司法权  B. 立法权、行政权和执法权  C. 立法权、财政权和司法权  D. 人事权、行政权和司法权 </t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>社会必要劳动时间是在现有的社会正常生产条件下，在社会平均劳动熟练程度和劳动强度下制造某种使用价值所需要的劳动时问，它是以()</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 具体劳动为尺度的  B. 简单劳动为尺度的  C. 复杂劳动为尺度的  D. 个别劳动为尺度的 </t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>资本所有制发展的新形式是()</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 私人股份资本所有制  B. 私人资本所有制  C. 法人资本所有制  D. 个人资本所有制 </t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>C.法人资本所有制</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
